--- a/P3/Results/Data/Gips/Gypsum30g/Results/OTResults.xlsx
+++ b/P3/Results/Data/Gips/Gypsum30g/Results/OTResults.xlsx
@@ -526,7 +526,7 @@
         <v>13.52</v>
       </c>
       <c r="C4" t="n">
-        <v>14.04</v>
+        <v>14.05</v>
       </c>
       <c r="D4" t="n">
         <v>15.62</v>
@@ -541,10 +541,10 @@
         <v>-42.96</v>
       </c>
       <c r="H4" t="n">
-        <v>-15.04</v>
+        <v>-14.99</v>
       </c>
       <c r="I4" t="n">
-        <v>27.92</v>
+        <v>27.97</v>
       </c>
       <c r="J4" t="n">
         <v>10.98</v>
@@ -556,10 +556,10 @@
         <v>4.99</v>
       </c>
       <c r="M4" t="n">
-        <v>-12.93</v>
+        <v>-12.88</v>
       </c>
       <c r="N4" t="n">
-        <v>-17.92</v>
+        <v>-17.87</v>
       </c>
       <c r="O4" t="n">
         <v>0.48</v>
@@ -581,51 +581,6 @@
           <t>Green_InFront_Camera_light10_exp67646.0_20242011_152410.png</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-28.52</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="I6" t="n">
-        <v>29.19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="K6" t="n">
-        <v>45.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-43.3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-48.45</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-2.54</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -658,10 +613,10 @@
         <v>13.27</v>
       </c>
       <c r="C10" t="n">
-        <v>9.109999999999999</v>
+        <v>15.47</v>
       </c>
       <c r="D10" t="n">
-        <v>11.05</v>
+        <v>11.7</v>
       </c>
       <c r="E10" t="n">
         <v>15.98</v>
@@ -673,10 +628,10 @@
         <v>-36.29</v>
       </c>
       <c r="H10" t="n">
-        <v>-17.3</v>
+        <v>21.3</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>57.6</v>
       </c>
       <c r="J10" t="n">
         <v>14.66</v>
@@ -688,10 +643,10 @@
         <v>4.95</v>
       </c>
       <c r="M10" t="n">
-        <v>-135.25</v>
+        <v>-3.68</v>
       </c>
       <c r="N10" t="n">
-        <v>-140.2</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="O10" t="n">
         <v>2.46</v>
@@ -710,10 +665,10 @@
         <v>13.63</v>
       </c>
       <c r="C11" t="n">
-        <v>15.68</v>
+        <v>15.95</v>
       </c>
       <c r="D11" t="n">
-        <v>14.55</v>
+        <v>12.65</v>
       </c>
       <c r="E11" t="n">
         <v>15.94</v>
@@ -725,10 +680,10 @@
         <v>-34.87</v>
       </c>
       <c r="H11" t="n">
-        <v>0.27</v>
+        <v>17.19</v>
       </c>
       <c r="I11" t="n">
-        <v>35.14</v>
+        <v>52.06</v>
       </c>
       <c r="J11" t="n">
         <v>15.25</v>
@@ -740,10 +695,10 @@
         <v>5.08</v>
       </c>
       <c r="M11" t="n">
-        <v>-27.26</v>
+        <v>-4.18</v>
       </c>
       <c r="N11" t="n">
-        <v>-32.34</v>
+        <v>-9.26</v>
       </c>
       <c r="O11" t="n">
         <v>2.55</v>
@@ -776,7 +731,7 @@
         <v>10.04</v>
       </c>
       <c r="C14" t="n">
-        <v>14.07</v>
+        <v>14.08</v>
       </c>
       <c r="D14" t="n">
         <v>11.17</v>
@@ -791,10 +746,10 @@
         <v>-73.70999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.88</v>
+        <v>-3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>69.83</v>
+        <v>69.86</v>
       </c>
       <c r="J14" t="n">
         <v>7.35</v>
